--- a/catalogo/L1 - Almacenamiento.xlsx
+++ b/catalogo/L1 - Almacenamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64032C41-06D4-41C1-87AC-4B951080664C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F43391-8195-4FF4-8F39-4682C2EA57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{ACCAD99C-1102-4F2F-85EF-59EE92D2B950}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="527">
   <si>
     <t>Código</t>
   </si>
@@ -1615,6 +1615,9 @@
   </si>
   <si>
     <t>19006</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1681,11 +1684,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,6 +1713,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33888,10 +33905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D68F5A-0BEC-4CD9-8032-FD6294362D49}">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33904,7 +33921,7 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33926,8 +33943,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1160709</v>
       </c>
@@ -33949,7 +33969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1160710</v>
       </c>
@@ -33971,7 +33991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1160711</v>
       </c>
@@ -33993,7 +34013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1160712</v>
       </c>
@@ -34015,7 +34035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1229152</v>
       </c>
@@ -34037,7 +34057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1229153</v>
       </c>
@@ -34059,7 +34079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1080210</v>
       </c>
@@ -34081,7 +34101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1080230</v>
       </c>
@@ -34103,7 +34123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1080250</v>
       </c>
@@ -34125,7 +34145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1080500</v>
       </c>
@@ -34147,7 +34167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1081102</v>
       </c>
@@ -34169,7 +34189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1034460</v>
       </c>
@@ -34191,7 +34211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1165850</v>
       </c>
@@ -34215,7 +34235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1165870</v>
       </c>
@@ -34239,7 +34259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1165865</v>
       </c>

--- a/catalogo/L1 - Almacenamiento.xlsx
+++ b/catalogo/L1 - Almacenamiento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F43391-8195-4FF4-8F39-4682C2EA57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E6812-9C30-442F-A130-B2D028A27C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{ACCAD99C-1102-4F2F-85EF-59EE92D2B950}"/>
   </bookViews>
@@ -1734,7 +1734,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Lista de Precio"/>
@@ -33609,9 +33609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -33649,7 +33649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -33755,7 +33755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -33897,7 +33897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -33907,8 +33907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D68F5A-0BEC-4CD9-8032-FD6294362D49}">
   <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33949,7 +33949,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1160709</v>
+        <v>1013076</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -33971,7 +33971,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1160710</v>
+        <v>1013135</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -33993,7 +33993,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1160711</v>
+        <v>1013076</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -34037,7 +34037,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>1229152</v>
+        <v>1013076</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -34059,7 +34059,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1229153</v>
+        <v>1013076</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -34081,7 +34081,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1080210</v>
+        <v>1013076</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -34169,7 +34169,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1081102</v>
+        <v>1013135</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>29</v>
@@ -34181,9 +34181,9 @@
         <v>18</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="6">
+      <c r="F12" s="6" t="e">
         <f>_xlfn.XLOOKUP(A12,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
@@ -34237,7 +34237,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>1165870</v>
+        <v>1013135</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>36</v>
@@ -34251,9 +34251,9 @@
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="6" t="e">
         <f>_xlfn.XLOOKUP(A15,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>37</v>
@@ -34309,7 +34309,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>1164056</v>
+        <v>1013135</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -34321,9 +34321,9 @@
         <v>31</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="6">
+      <c r="F18" s="6" t="e">
         <f>_xlfn.XLOOKUP(A18,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>43</v>
@@ -34331,7 +34331,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>1034446</v>
+        <v>1013135</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -34343,9 +34343,9 @@
         <v>31</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="6">
+      <c r="F19" s="6" t="e">
         <f>_xlfn.XLOOKUP(A19,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>45</v>
@@ -34353,7 +34353,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>1034450</v>
+        <v>1013135</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -34365,9 +34365,9 @@
         <v>31</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="6">
+      <c r="F20" s="6" t="e">
         <f>_xlfn.XLOOKUP(A20,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>47</v>
@@ -34375,7 +34375,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>1166404</v>
+        <v>1013135</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -34387,9 +34387,9 @@
         <v>31</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="6">
+      <c r="F21" s="6" t="e">
         <f>_xlfn.XLOOKUP(A21,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>49</v>
@@ -34397,7 +34397,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>1034441</v>
+        <v>1013135</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>50</v>
@@ -34409,9 +34409,9 @@
         <v>31</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="6">
+      <c r="F22" s="6" t="e">
         <f>_xlfn.XLOOKUP(A22,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>51</v>
@@ -34419,7 +34419,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>1034442</v>
+        <v>1013135</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -34431,9 +34431,9 @@
         <v>31</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="6">
+      <c r="F23" s="6" t="e">
         <f>_xlfn.XLOOKUP(A23,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>53</v>
@@ -34441,7 +34441,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>1166401</v>
+        <v>1013135</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -34453,9 +34453,9 @@
         <v>31</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="6">
+      <c r="F24" s="6" t="e">
         <f>_xlfn.XLOOKUP(A24,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>55</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>1166310</v>
+        <v>1013135</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
@@ -34475,9 +34475,9 @@
         <v>31</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="6">
+      <c r="F25" s="6" t="e">
         <f>_xlfn.XLOOKUP(A25,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>57</v>
@@ -34485,7 +34485,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>1166301</v>
+        <v>1013135</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>58</v>
@@ -34497,9 +34497,9 @@
         <v>31</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="6">
+      <c r="F26" s="6" t="e">
         <f>_xlfn.XLOOKUP(A26,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>59</v>
@@ -34507,7 +34507,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>1230900</v>
+        <v>1013135</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>60</v>
@@ -34519,9 +34519,9 @@
         <v>31</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="6">
+      <c r="F27" s="6" t="e">
         <f>_xlfn.XLOOKUP(A27,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>61</v>
@@ -34529,7 +34529,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>1034461</v>
+        <v>1013135</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>62</v>
@@ -34541,9 +34541,9 @@
         <v>31</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="6">
+      <c r="F28" s="6" t="e">
         <f>_xlfn.XLOOKUP(A28,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>63</v>
@@ -34551,7 +34551,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>1034462</v>
+        <v>1013135</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>64</v>
@@ -34563,9 +34563,9 @@
         <v>31</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="6">
+      <c r="F29" s="6" t="e">
         <f>_xlfn.XLOOKUP(A29,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>65</v>
@@ -34573,7 +34573,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>1034463</v>
+        <v>1013135</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>66</v>
@@ -34585,9 +34585,9 @@
         <v>31</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="6">
+      <c r="F30" s="6" t="e">
         <f>_xlfn.XLOOKUP(A30,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>67</v>
@@ -34595,7 +34595,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>1034464</v>
+        <v>1013135</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>68</v>
@@ -34607,9 +34607,9 @@
         <v>31</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="6">
+      <c r="F31" s="6" t="e">
         <f>_xlfn.XLOOKUP(A31,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>69</v>
@@ -34617,7 +34617,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>1166701</v>
+        <v>1013135</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>70</v>
@@ -34629,9 +34629,9 @@
         <v>31</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="6">
+      <c r="F32" s="6" t="e">
         <f>_xlfn.XLOOKUP(A32,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>71</v>
@@ -34639,7 +34639,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>1166320</v>
+        <v>1013135</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -34651,9 +34651,9 @@
         <v>31</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="6">
+      <c r="F33" s="6" t="e">
         <f>_xlfn.XLOOKUP(A33,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>73</v>
@@ -34661,7 +34661,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>1166500</v>
+        <v>1013135</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>74</v>
@@ -34673,9 +34673,9 @@
         <v>31</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="6">
+      <c r="F34" s="6" t="e">
         <f>_xlfn.XLOOKUP(A34,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>75</v>
@@ -34683,7 +34683,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>1166402</v>
+        <v>1013135</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>76</v>
@@ -34695,9 +34695,9 @@
         <v>31</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="6">
+      <c r="F35" s="6" t="e">
         <f>_xlfn.XLOOKUP(A35,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>77</v>
@@ -34705,7 +34705,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>1166403</v>
+        <v>1013135</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>78</v>
@@ -34717,9 +34717,9 @@
         <v>31</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="6">
+      <c r="F36" s="6" t="e">
         <f>_xlfn.XLOOKUP(A36,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>79</v>
@@ -34727,7 +34727,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>1034474</v>
+        <v>1013135</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>80</v>
@@ -34751,7 +34751,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>1034473</v>
+        <v>1013135</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>83</v>
@@ -34775,7 +34775,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>1034475</v>
+        <v>1013135</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>85</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>1034684</v>
+        <v>1013135</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>87</v>
@@ -34813,9 +34813,9 @@
       <c r="E40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="6" t="e">
         <f>_xlfn.XLOOKUP(A40,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>89</v>
@@ -34823,7 +34823,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>1034688</v>
+        <v>1013135</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>90</v>
@@ -34837,9 +34837,9 @@
       <c r="E41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="6" t="e">
         <f>_xlfn.XLOOKUP(A41,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>91</v>
@@ -34847,7 +34847,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>1034663</v>
+        <v>1013135</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>92</v>
@@ -34861,9 +34861,9 @@
       <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="6" t="e">
         <f>_xlfn.XLOOKUP(A42,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>93</v>
@@ -34871,7 +34871,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>1034660</v>
+        <v>1013135</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>94</v>
@@ -34885,9 +34885,9 @@
       <c r="E43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="6" t="e">
         <f>_xlfn.XLOOKUP(A43,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>95</v>
@@ -34895,7 +34895,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>1034661</v>
+        <v>1013135</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>96</v>
@@ -34909,9 +34909,9 @@
       <c r="E44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="6" t="e">
         <f>_xlfn.XLOOKUP(A44,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>97</v>
@@ -34919,7 +34919,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>1034662</v>
+        <v>1013135</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>98</v>
@@ -34933,9 +34933,9 @@
       <c r="E45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="6" t="e">
         <f>_xlfn.XLOOKUP(A45,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>99</v>
@@ -34943,7 +34943,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>1034675</v>
+        <v>1013135</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>100</v>
@@ -34957,9 +34957,9 @@
       <c r="E46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="6" t="e">
         <f>_xlfn.XLOOKUP(A46,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>101</v>
@@ -34967,7 +34967,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>1034676</v>
+        <v>1013135</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>102</v>
@@ -34981,9 +34981,9 @@
       <c r="E47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="6" t="e">
         <f>_xlfn.XLOOKUP(A47,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>103</v>
@@ -34991,7 +34991,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>1034673</v>
+        <v>1013135</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>104</v>
@@ -35005,9 +35005,9 @@
       <c r="E48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="6" t="e">
         <f>_xlfn.XLOOKUP(A48,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>105</v>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>1034671</v>
+        <v>1013135</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>106</v>
@@ -35029,9 +35029,9 @@
       <c r="E49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="6" t="e">
         <f>_xlfn.XLOOKUP(A49,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>107</v>
@@ -35039,7 +35039,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>1034670</v>
+        <v>1013135</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>108</v>
@@ -35053,9 +35053,9 @@
       <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="6" t="e">
         <f>_xlfn.XLOOKUP(A50,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>109</v>
@@ -35063,7 +35063,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>1034672</v>
+        <v>1013135</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>110</v>
@@ -35077,9 +35077,9 @@
       <c r="E51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="6" t="e">
         <f>_xlfn.XLOOKUP(A51,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>111</v>
@@ -35087,7 +35087,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>1034678</v>
+        <v>1013135</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>112</v>
@@ -35101,9 +35101,9 @@
       <c r="E52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="6" t="e">
         <f>_xlfn.XLOOKUP(A52,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>113</v>
@@ -35111,7 +35111,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>1166700</v>
+        <v>1013135</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
@@ -35123,9 +35123,9 @@
         <v>31</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="6">
+      <c r="F53" s="6" t="e">
         <f>_xlfn.XLOOKUP(A53,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>115</v>
@@ -35133,7 +35133,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>6000234</v>
+        <v>1013135</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>116</v>
@@ -35145,9 +35145,9 @@
         <v>31</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="6">
+      <c r="F54" s="6" t="e">
         <f>_xlfn.XLOOKUP(A54,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>117</v>
@@ -35155,7 +35155,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>1034414</v>
+        <v>1013135</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>118</v>
@@ -35167,9 +35167,9 @@
         <v>31</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="6">
+      <c r="F55" s="6" t="e">
         <f>_xlfn.XLOOKUP(A55,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>119</v>
@@ -35177,7 +35177,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>1271311</v>
+        <v>1013135</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>120</v>
@@ -35189,9 +35189,9 @@
         <v>121</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="6">
+      <c r="F56" s="6" t="e">
         <f>_xlfn.XLOOKUP(A56,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>122</v>
@@ -35199,7 +35199,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>1271312</v>
+        <v>1013135</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>123</v>
@@ -35211,9 +35211,9 @@
         <v>121</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="6">
+      <c r="F57" s="6" t="e">
         <f>_xlfn.XLOOKUP(A57,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>124</v>
@@ -35221,7 +35221,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>1271319</v>
+        <v>1013135</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>125</v>
@@ -35233,9 +35233,9 @@
         <v>121</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="6">
+      <c r="F58" s="6" t="e">
         <f>_xlfn.XLOOKUP(A58,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>126</v>
@@ -35243,7 +35243,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>1271322</v>
+        <v>1013135</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>127</v>
@@ -35255,9 +35255,9 @@
         <v>121</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="6">
+      <c r="F59" s="6" t="e">
         <f>_xlfn.XLOOKUP(A59,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>128</v>
@@ -35265,7 +35265,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>1271320</v>
+        <v>1013135</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>129</v>
@@ -35277,9 +35277,9 @@
         <v>121</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="6">
+      <c r="F60" s="6" t="e">
         <f>_xlfn.XLOOKUP(A60,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>130</v>
@@ -35287,7 +35287,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>1271321</v>
+        <v>1013135</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>131</v>
@@ -35299,9 +35299,9 @@
         <v>121</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="6">
+      <c r="F61" s="6" t="e">
         <f>_xlfn.XLOOKUP(A61,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>132</v>
@@ -35309,7 +35309,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>1271323</v>
+        <v>1013135</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>133</v>
@@ -35321,9 +35321,9 @@
         <v>121</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="6">
+      <c r="F62" s="6" t="e">
         <f>_xlfn.XLOOKUP(A62,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>134</v>
@@ -35331,7 +35331,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>6810693</v>
+        <v>1013135</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>135</v>
@@ -35343,9 +35343,9 @@
         <v>121</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="6">
+      <c r="F63" s="6" t="e">
         <f>_xlfn.XLOOKUP(A63,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>136</v>
@@ -35353,7 +35353,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>1093480</v>
+        <v>1013135</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>137</v>
@@ -35365,9 +35365,9 @@
         <v>121</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="6">
+      <c r="F64" s="6" t="e">
         <f>_xlfn.XLOOKUP(A64,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>28</v>
@@ -35375,7 +35375,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>1093470</v>
+        <v>1013135</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>138</v>
@@ -35389,9 +35389,9 @@
       <c r="E65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="6" t="e">
         <f>_xlfn.XLOOKUP(A65,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>28</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>1093449</v>
+        <v>1013135</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>140</v>
@@ -35411,9 +35411,9 @@
         <v>121</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="6">
+      <c r="F66" s="6" t="e">
         <f>_xlfn.XLOOKUP(A66,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>28</v>
@@ -35421,7 +35421,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>1093451</v>
+        <v>1013135</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>141</v>
@@ -35433,9 +35433,9 @@
         <v>121</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="6">
+      <c r="F67" s="6" t="e">
         <f>_xlfn.XLOOKUP(A67,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>28</v>
@@ -35443,7 +35443,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>1093448</v>
+        <v>1013135</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>142</v>
@@ -35455,9 +35455,9 @@
         <v>121</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="6">
+      <c r="F68" s="6" t="e">
         <f>_xlfn.XLOOKUP(A68,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>28</v>
@@ -35465,7 +35465,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>1093450</v>
+        <v>1013135</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>143</v>
@@ -35477,9 +35477,9 @@
         <v>121</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="6">
+      <c r="F69" s="6" t="e">
         <f>_xlfn.XLOOKUP(A69,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>28</v>
@@ -35487,7 +35487,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>1181000</v>
+        <v>1013135</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>144</v>
@@ -35499,9 +35499,9 @@
         <v>121</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="6">
+      <c r="F70" s="6" t="e">
         <f>_xlfn.XLOOKUP(A70,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>145</v>
@@ -35509,7 +35509,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>1181100</v>
+        <v>1013135</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>146</v>
@@ -35521,9 +35521,9 @@
         <v>121</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="6">
+      <c r="F71" s="6" t="e">
         <f>_xlfn.XLOOKUP(A71,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>147</v>
@@ -35531,7 +35531,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>1271300</v>
+        <v>1013135</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>148</v>
@@ -35543,9 +35543,9 @@
         <v>121</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="6">
+      <c r="F72" s="6" t="e">
         <f>_xlfn.XLOOKUP(A72,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>149</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>1271305</v>
+        <v>1013135</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>150</v>
@@ -35565,9 +35565,9 @@
         <v>121</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="6">
+      <c r="F73" s="6" t="e">
         <f>_xlfn.XLOOKUP(A73,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>151</v>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>1271310</v>
+        <v>1013135</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>152</v>
@@ -35587,9 +35587,9 @@
         <v>121</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="6">
+      <c r="F74" s="6" t="e">
         <f>_xlfn.XLOOKUP(A74,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>153</v>
@@ -35597,7 +35597,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>1159200</v>
+        <v>1013135</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>154</v>
@@ -35611,9 +35611,9 @@
       <c r="E75" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="6" t="e">
         <f>_xlfn.XLOOKUP(A75,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>156</v>
@@ -35621,7 +35621,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>1159400</v>
+        <v>1013135</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>157</v>
@@ -35635,9 +35635,9 @@
       <c r="E76" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="6" t="e">
         <f>_xlfn.XLOOKUP(A76,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>158</v>
@@ -35645,7 +35645,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>1212250</v>
+        <v>1013135</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>159</v>
@@ -35659,9 +35659,9 @@
       <c r="E77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="6" t="e">
         <f>_xlfn.XLOOKUP(A77,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>160</v>
@@ -35669,7 +35669,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>1170696</v>
+        <v>1013135</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>161</v>
@@ -35683,9 +35683,9 @@
       <c r="E78" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="6" t="e">
         <f>_xlfn.XLOOKUP(A78,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>162</v>
@@ -35693,7 +35693,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>1170698</v>
+        <v>1013135</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>163</v>
@@ -35707,9 +35707,9 @@
       <c r="E79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="6" t="e">
         <f>_xlfn.XLOOKUP(A79,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>164</v>
@@ -35717,7 +35717,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>1212227</v>
+        <v>1013135</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>165</v>
@@ -35731,9 +35731,9 @@
       <c r="E80" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="6" t="e">
         <f>_xlfn.XLOOKUP(A80,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>166</v>
@@ -35741,7 +35741,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>1212225</v>
+        <v>1013135</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>167</v>
@@ -35755,9 +35755,9 @@
       <c r="E81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="6" t="e">
         <f>_xlfn.XLOOKUP(A81,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>168</v>
@@ -35765,7 +35765,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>1170694</v>
+        <v>1013135</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>169</v>
@@ -35779,9 +35779,9 @@
       <c r="E82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="6" t="e">
         <f>_xlfn.XLOOKUP(A82,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>170</v>
@@ -35789,7 +35789,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>1170630</v>
+        <v>1013135</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>171</v>
@@ -35803,9 +35803,9 @@
       <c r="E83" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="6" t="e">
         <f>_xlfn.XLOOKUP(A83,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>172</v>
@@ -35813,7 +35813,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>1162115</v>
+        <v>1013135</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>173</v>
@@ -35827,9 +35827,9 @@
       <c r="E84" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="6" t="e">
         <f>_xlfn.XLOOKUP(A84,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>174</v>
@@ -35837,7 +35837,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>1162130</v>
+        <v>1013135</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>175</v>
@@ -35851,9 +35851,9 @@
       <c r="E85" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="6" t="e">
         <f>_xlfn.XLOOKUP(A85,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>176</v>
@@ -35861,7 +35861,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>1162100</v>
+        <v>1013135</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>177</v>
@@ -35875,9 +35875,9 @@
       <c r="E86" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="6" t="e">
         <f>_xlfn.XLOOKUP(A86,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>178</v>
@@ -35885,7 +35885,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>1170685</v>
+        <v>1013135</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>179</v>
@@ -35899,9 +35899,9 @@
       <c r="E87" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="6" t="e">
         <f>_xlfn.XLOOKUP(A87,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>180</v>
@@ -35909,7 +35909,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>1162125</v>
+        <v>1013135</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>181</v>
@@ -35923,9 +35923,9 @@
       <c r="E88" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="6" t="e">
         <f>_xlfn.XLOOKUP(A88,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>182</v>
@@ -35933,7 +35933,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>1162110</v>
+        <v>1013135</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>183</v>
@@ -35947,9 +35947,9 @@
       <c r="E89" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="6" t="e">
         <f>_xlfn.XLOOKUP(A89,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>184</v>
@@ -35957,7 +35957,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>1162120</v>
+        <v>1013135</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>185</v>
@@ -35971,9 +35971,9 @@
       <c r="E90" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="6" t="e">
         <f>_xlfn.XLOOKUP(A90,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>186</v>
@@ -35981,7 +35981,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>1170688</v>
+        <v>1013135</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>187</v>
@@ -35995,9 +35995,9 @@
       <c r="E91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="6" t="e">
         <f>_xlfn.XLOOKUP(A91,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>188</v>
@@ -36005,7 +36005,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>1212280</v>
+        <v>1013135</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>189</v>
@@ -36019,9 +36019,9 @@
       <c r="E92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="6" t="e">
         <f>_xlfn.XLOOKUP(A92,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>190</v>
@@ -36029,7 +36029,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>1212285</v>
+        <v>1013135</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>191</v>
@@ -36043,9 +36043,9 @@
       <c r="E93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="6" t="e">
         <f>_xlfn.XLOOKUP(A93,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>192</v>
@@ -36053,7 +36053,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>1212295</v>
+        <v>1013135</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>193</v>
@@ -36067,9 +36067,9 @@
       <c r="E94" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="6" t="e">
         <f>_xlfn.XLOOKUP(A94,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>194</v>
@@ -36077,7 +36077,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>1212340</v>
+        <v>1013135</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>195</v>
@@ -36091,9 +36091,9 @@
       <c r="E95" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="6" t="e">
         <f>_xlfn.XLOOKUP(A95,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>196</v>
@@ -36101,7 +36101,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>1212296</v>
+        <v>1013135</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>197</v>
@@ -36115,9 +36115,9 @@
       <c r="E96" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="6" t="e">
         <f>_xlfn.XLOOKUP(A96,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>198</v>
@@ -36125,7 +36125,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>1170705</v>
+        <v>1013135</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>199</v>
@@ -36139,9 +36139,9 @@
       <c r="E97" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="6" t="e">
         <f>_xlfn.XLOOKUP(A97,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>200</v>
@@ -36149,7 +36149,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>1170707</v>
+        <v>1013135</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>201</v>
@@ -36163,9 +36163,9 @@
       <c r="E98" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="6" t="e">
         <f>_xlfn.XLOOKUP(A98,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>202</v>
@@ -36173,7 +36173,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>1170693</v>
+        <v>1013135</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>203</v>
@@ -36187,9 +36187,9 @@
       <c r="E99" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="6" t="e">
         <f>_xlfn.XLOOKUP(A99,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>204</v>
@@ -36197,7 +36197,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>1170692</v>
+        <v>1013135</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>205</v>
@@ -36211,9 +36211,9 @@
       <c r="E100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="6" t="e">
         <f>_xlfn.XLOOKUP(A100,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>206</v>
@@ -36221,7 +36221,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>1170704</v>
+        <v>1013135</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>207</v>
@@ -36235,9 +36235,9 @@
       <c r="E101" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="6" t="e">
         <f>_xlfn.XLOOKUP(A101,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>208</v>
@@ -36245,7 +36245,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>1170708</v>
+        <v>1013135</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>209</v>
@@ -36259,9 +36259,9 @@
       <c r="E102" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="6" t="e">
         <f>_xlfn.XLOOKUP(A102,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>210</v>
@@ -36269,7 +36269,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>1213100</v>
+        <v>1013135</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>211</v>
@@ -36283,9 +36283,9 @@
       <c r="E103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="6" t="e">
         <f>_xlfn.XLOOKUP(A103,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>212</v>
@@ -36293,7 +36293,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>1213101</v>
+        <v>1013135</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>213</v>
@@ -36307,9 +36307,9 @@
       <c r="E104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="6" t="e">
         <f>_xlfn.XLOOKUP(A104,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>214</v>
@@ -36317,7 +36317,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>1170680</v>
+        <v>1013135</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>215</v>
@@ -36331,9 +36331,9 @@
       <c r="E105" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="6" t="e">
         <f>_xlfn.XLOOKUP(A105,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>216</v>
@@ -36341,7 +36341,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>1170681</v>
+        <v>1013135</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>217</v>
@@ -36355,9 +36355,9 @@
       <c r="E106" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="6" t="e">
         <f>_xlfn.XLOOKUP(A106,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>218</v>
@@ -36365,7 +36365,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>1170706</v>
+        <v>1013135</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>219</v>
@@ -36379,9 +36379,9 @@
       <c r="E107" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="6" t="e">
         <f>_xlfn.XLOOKUP(A107,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>220</v>
@@ -36389,7 +36389,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>1170709</v>
+        <v>1013135</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>221</v>
@@ -36403,9 +36403,9 @@
       <c r="E108" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="6" t="e">
         <f>_xlfn.XLOOKUP(A108,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>222</v>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>1170690</v>
+        <v>1013135</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>223</v>
@@ -36427,9 +36427,9 @@
       <c r="E109" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="6" t="e">
         <f>_xlfn.XLOOKUP(A109,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>224</v>
@@ -36437,7 +36437,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>1170691</v>
+        <v>1013135</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>225</v>
@@ -36451,9 +36451,9 @@
       <c r="E110" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="6" t="e">
         <f>_xlfn.XLOOKUP(A110,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>226</v>
@@ -36461,7 +36461,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>1172650</v>
+        <v>1013135</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>227</v>
@@ -36475,9 +36475,9 @@
       <c r="E111" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="6" t="e">
         <f>_xlfn.XLOOKUP(A111,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>228</v>
@@ -36485,7 +36485,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>1172649</v>
+        <v>1013135</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>229</v>
@@ -36499,9 +36499,9 @@
       <c r="E112" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="6" t="e">
         <f>_xlfn.XLOOKUP(A112,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>230</v>
@@ -36509,7 +36509,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>1171955</v>
+        <v>1013135</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>231</v>
@@ -36523,9 +36523,9 @@
       <c r="E113" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="6" t="e">
         <f>_xlfn.XLOOKUP(A113,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>232</v>
@@ -36533,7 +36533,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>1171954</v>
+        <v>1013135</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>233</v>
@@ -36547,9 +36547,9 @@
       <c r="E114" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="6" t="e">
         <f>_xlfn.XLOOKUP(A114,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>234</v>
@@ -36557,7 +36557,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>1171906</v>
+        <v>1013135</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>235</v>
@@ -36571,9 +36571,9 @@
       <c r="E115" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="6" t="e">
         <f>_xlfn.XLOOKUP(A115,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>236</v>
@@ -36581,7 +36581,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>1171907</v>
+        <v>1013135</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>237</v>
@@ -36595,9 +36595,9 @@
       <c r="E116" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="6" t="e">
         <f>_xlfn.XLOOKUP(A116,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>238</v>
@@ -36605,7 +36605,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>1171801</v>
+        <v>1013135</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>239</v>
@@ -36619,9 +36619,9 @@
       <c r="E117" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="6" t="e">
         <f>_xlfn.XLOOKUP(A117,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>240</v>
@@ -36629,7 +36629,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>1171802</v>
+        <v>1013135</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>241</v>
@@ -36643,9 +36643,9 @@
       <c r="E118" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="6" t="e">
         <f>_xlfn.XLOOKUP(A118,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>242</v>
@@ -36653,7 +36653,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>1171915</v>
+        <v>1013135</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>243</v>
@@ -36667,9 +36667,9 @@
       <c r="E119" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="6" t="e">
         <f>_xlfn.XLOOKUP(A119,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>244</v>
@@ -36677,7 +36677,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>1171916</v>
+        <v>1013135</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>245</v>
@@ -36691,9 +36691,9 @@
       <c r="E120" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="6" t="e">
         <f>_xlfn.XLOOKUP(A120,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>246</v>
@@ -36701,7 +36701,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>1171900</v>
+        <v>1013135</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>247</v>
@@ -36715,9 +36715,9 @@
       <c r="E121" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="6" t="e">
         <f>_xlfn.XLOOKUP(A121,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>248</v>
@@ -36725,7 +36725,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>1171899</v>
+        <v>1013135</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>249</v>
@@ -36739,9 +36739,9 @@
       <c r="E122" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="6" t="e">
         <f>_xlfn.XLOOKUP(A122,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>250</v>
@@ -36749,7 +36749,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>1171905</v>
+        <v>1013135</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>251</v>
@@ -36763,9 +36763,9 @@
       <c r="E123" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="6" t="e">
         <f>_xlfn.XLOOKUP(A123,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>252</v>
@@ -36773,7 +36773,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>1171904</v>
+        <v>1013135</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>253</v>
@@ -36787,9 +36787,9 @@
       <c r="E124" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="6" t="e">
         <f>_xlfn.XLOOKUP(A124,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>254</v>
@@ -36797,7 +36797,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>1171800</v>
+        <v>1013135</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>255</v>
@@ -36811,9 +36811,9 @@
       <c r="E125" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="6" t="e">
         <f>_xlfn.XLOOKUP(A125,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>256</v>
@@ -36821,7 +36821,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>1171799</v>
+        <v>1013135</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>257</v>
@@ -36835,9 +36835,9 @@
       <c r="E126" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="6" t="e">
         <f>_xlfn.XLOOKUP(A126,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>258</v>
@@ -36845,7 +36845,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>1213120</v>
+        <v>1013135</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>259</v>
@@ -36859,9 +36859,9 @@
       <c r="E127" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="6" t="e">
         <f>_xlfn.XLOOKUP(A127,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>260</v>
@@ -36869,7 +36869,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>1213121</v>
+        <v>1013135</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>261</v>
@@ -36883,9 +36883,9 @@
       <c r="E128" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="6" t="e">
         <f>_xlfn.XLOOKUP(A128,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>262</v>
@@ -36893,7 +36893,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>1171960</v>
+        <v>1013135</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>263</v>
@@ -36907,9 +36907,9 @@
       <c r="E129" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="6" t="e">
         <f>_xlfn.XLOOKUP(A129,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>264</v>
@@ -36917,7 +36917,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>1171959</v>
+        <v>1013135</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>265</v>
@@ -36931,9 +36931,9 @@
       <c r="E130" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="6" t="e">
         <f>_xlfn.XLOOKUP(A130,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>266</v>
@@ -36941,7 +36941,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>1171901</v>
+        <v>1013135</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>267</v>
@@ -36955,9 +36955,9 @@
       <c r="E131" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="6" t="e">
         <f>_xlfn.XLOOKUP(A131,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>268</v>
@@ -36965,7 +36965,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>1171902</v>
+        <v>1013135</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>269</v>
@@ -36979,9 +36979,9 @@
       <c r="E132" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="6" t="e">
         <f>_xlfn.XLOOKUP(A132,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>270</v>
@@ -36989,7 +36989,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>1170701</v>
+        <v>1013135</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>271</v>
@@ -37003,9 +37003,9 @@
       <c r="E133" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="6" t="e">
         <f>_xlfn.XLOOKUP(A133,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>272</v>
@@ -37013,7 +37013,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>1170710</v>
+        <v>1013135</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>273</v>
@@ -37027,9 +37027,9 @@
       <c r="E134" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134" s="6" t="e">
         <f>_xlfn.XLOOKUP(A134,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>274</v>
@@ -37037,7 +37037,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>1170702</v>
+        <v>1013135</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>275</v>
@@ -37051,9 +37051,9 @@
       <c r="E135" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="6" t="e">
         <f>_xlfn.XLOOKUP(A135,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>276</v>
@@ -37061,7 +37061,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>1170711</v>
+        <v>1013135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>277</v>
@@ -37075,9 +37075,9 @@
       <c r="E136" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136" s="6" t="e">
         <f>_xlfn.XLOOKUP(A136,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>278</v>
@@ -37085,7 +37085,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>1170703</v>
+        <v>1013135</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>279</v>
@@ -37099,9 +37099,9 @@
       <c r="E137" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="6" t="e">
         <f>_xlfn.XLOOKUP(A137,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>280</v>
@@ -37109,7 +37109,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>1170712</v>
+        <v>1013135</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>281</v>
@@ -37123,9 +37123,9 @@
       <c r="E138" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138" s="6" t="e">
         <f>_xlfn.XLOOKUP(A138,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>282</v>
@@ -37133,7 +37133,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>1171950</v>
+        <v>1013135</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>283</v>
@@ -37147,9 +37147,9 @@
       <c r="E139" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F139" s="6" t="e">
         <f>_xlfn.XLOOKUP(A139,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>284</v>
@@ -37157,7 +37157,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>1171951</v>
+        <v>1013135</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>285</v>
@@ -37171,9 +37171,9 @@
       <c r="E140" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="6" t="e">
         <f>_xlfn.XLOOKUP(A140,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>286</v>
@@ -37181,7 +37181,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>1171700</v>
+        <v>1013135</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>287</v>
@@ -37195,9 +37195,9 @@
       <c r="E141" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141" s="6" t="e">
         <f>_xlfn.XLOOKUP(A141,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>288</v>
@@ -37205,7 +37205,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>1171701</v>
+        <v>1013135</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>289</v>
@@ -37219,9 +37219,9 @@
       <c r="E142" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142" s="6" t="e">
         <f>_xlfn.XLOOKUP(A142,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>290</v>
@@ -37229,7 +37229,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>1171702</v>
+        <v>1013135</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>291</v>
@@ -37243,9 +37243,9 @@
       <c r="E143" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="6" t="e">
         <f>_xlfn.XLOOKUP(A143,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>292</v>
@@ -37253,7 +37253,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>1171703</v>
+        <v>1013135</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>293</v>
@@ -37267,9 +37267,9 @@
       <c r="E144" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="6" t="e">
         <f>_xlfn.XLOOKUP(A144,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>294</v>
@@ -37277,7 +37277,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>1171704</v>
+        <v>1013135</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>295</v>
@@ -37291,9 +37291,9 @@
       <c r="E145" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="6" t="e">
         <f>_xlfn.XLOOKUP(A145,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>296</v>
@@ -37301,7 +37301,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>1171705</v>
+        <v>1013135</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>297</v>
@@ -37315,9 +37315,9 @@
       <c r="E146" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="6" t="e">
         <f>_xlfn.XLOOKUP(A146,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>298</v>
@@ -37325,7 +37325,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>1171710</v>
+        <v>1013135</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>299</v>
@@ -37339,9 +37339,9 @@
       <c r="E147" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="6" t="e">
         <f>_xlfn.XLOOKUP(A147,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>300</v>
@@ -37349,7 +37349,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>1171711</v>
+        <v>1013135</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>301</v>
@@ -37363,9 +37363,9 @@
       <c r="E148" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="6" t="e">
         <f>_xlfn.XLOOKUP(A148,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>302</v>
@@ -37373,7 +37373,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>1171712</v>
+        <v>1013135</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>303</v>
@@ -37387,9 +37387,9 @@
       <c r="E149" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="6" t="e">
         <f>_xlfn.XLOOKUP(A149,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>304</v>
@@ -37397,7 +37397,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>1171713</v>
+        <v>1013135</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>305</v>
@@ -37411,9 +37411,9 @@
       <c r="E150" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="6" t="e">
         <f>_xlfn.XLOOKUP(A150,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>306</v>
@@ -37421,7 +37421,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>1171706</v>
+        <v>1013135</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>307</v>
@@ -37435,9 +37435,9 @@
       <c r="E151" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="6" t="e">
         <f>_xlfn.XLOOKUP(A151,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>308</v>
@@ -37445,7 +37445,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>1171707</v>
+        <v>1013135</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>309</v>
@@ -37459,9 +37459,9 @@
       <c r="E152" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="6" t="e">
         <f>_xlfn.XLOOKUP(A152,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>310</v>
@@ -37469,7 +37469,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>1171718</v>
+        <v>1013135</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>311</v>
@@ -37483,9 +37483,9 @@
       <c r="E153" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="6" t="e">
         <f>_xlfn.XLOOKUP(A153,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>312</v>
@@ -37493,7 +37493,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>1171719</v>
+        <v>1013135</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>313</v>
@@ -37507,9 +37507,9 @@
       <c r="E154" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="6" t="e">
         <f>_xlfn.XLOOKUP(A154,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>314</v>
@@ -37517,7 +37517,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>1171708</v>
+        <v>1013135</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>315</v>
@@ -37531,9 +37531,9 @@
       <c r="E155" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="6" t="e">
         <f>_xlfn.XLOOKUP(A155,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>316</v>
@@ -37541,7 +37541,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>1171709</v>
+        <v>1013135</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>317</v>
@@ -37555,9 +37555,9 @@
       <c r="E156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="6" t="e">
         <f>_xlfn.XLOOKUP(A156,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>318</v>
@@ -37565,7 +37565,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>1171716</v>
+        <v>1013135</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>319</v>
@@ -37579,9 +37579,9 @@
       <c r="E157" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="6" t="e">
         <f>_xlfn.XLOOKUP(A157,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>320</v>
@@ -37589,7 +37589,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>1171717</v>
+        <v>1013135</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>321</v>
@@ -37603,9 +37603,9 @@
       <c r="E158" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="6" t="e">
         <f>_xlfn.XLOOKUP(A158,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>322</v>
@@ -37613,7 +37613,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>1171714</v>
+        <v>1013135</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>323</v>
@@ -37627,9 +37627,9 @@
       <c r="E159" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="6" t="e">
         <f>_xlfn.XLOOKUP(A159,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>324</v>
@@ -37637,7 +37637,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>1171715</v>
+        <v>1013135</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>325</v>
@@ -37651,9 +37651,9 @@
       <c r="E160" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="6" t="e">
         <f>_xlfn.XLOOKUP(A160,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>326</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>1171720</v>
+        <v>1013135</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>327</v>
@@ -37675,9 +37675,9 @@
       <c r="E161" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161" s="6" t="e">
         <f>_xlfn.XLOOKUP(A161,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>328</v>
@@ -37685,7 +37685,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>1171721</v>
+        <v>1013135</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>329</v>
@@ -37699,9 +37699,9 @@
       <c r="E162" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162" s="6" t="e">
         <f>_xlfn.XLOOKUP(A162,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>330</v>
@@ -37709,7 +37709,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>1171722</v>
+        <v>1013135</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>331</v>
@@ -37723,9 +37723,9 @@
       <c r="E163" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163" s="6" t="e">
         <f>_xlfn.XLOOKUP(A163,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>332</v>
@@ -37733,7 +37733,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>1171723</v>
+        <v>1013135</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>333</v>
@@ -37747,9 +37747,9 @@
       <c r="E164" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="6" t="e">
         <f>_xlfn.XLOOKUP(A164,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>334</v>
@@ -37757,7 +37757,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>1171724</v>
+        <v>1013135</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>335</v>
@@ -37771,9 +37771,9 @@
       <c r="E165" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165" s="6" t="e">
         <f>_xlfn.XLOOKUP(A165,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>336</v>
@@ -37781,7 +37781,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>1171725</v>
+        <v>1013135</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>337</v>
@@ -37795,9 +37795,9 @@
       <c r="E166" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166" s="6" t="e">
         <f>_xlfn.XLOOKUP(A166,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>338</v>
@@ -37805,7 +37805,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>1170605</v>
+        <v>1013135</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>339</v>
@@ -37819,9 +37819,9 @@
       <c r="E167" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167" s="6" t="e">
         <f>_xlfn.XLOOKUP(A167,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>340</v>
@@ -37829,7 +37829,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>1170600</v>
+        <v>1013135</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>341</v>
@@ -37843,9 +37843,9 @@
       <c r="E168" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="6" t="e">
         <f>_xlfn.XLOOKUP(A168,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>342</v>
@@ -37853,7 +37853,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>1170610</v>
+        <v>1013135</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>343</v>
@@ -37867,9 +37867,9 @@
       <c r="E169" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169" s="6" t="e">
         <f>_xlfn.XLOOKUP(A169,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>344</v>
@@ -37877,7 +37877,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>1170500</v>
+        <v>1013135</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>345</v>
@@ -37891,9 +37891,9 @@
       <c r="E170" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170" s="6" t="e">
         <f>_xlfn.XLOOKUP(A170,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>346</v>
@@ -37901,7 +37901,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>1170615</v>
+        <v>1013135</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>347</v>
@@ -37915,9 +37915,9 @@
       <c r="E171" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171" s="6" t="e">
         <f>_xlfn.XLOOKUP(A171,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>348</v>
@@ -37925,7 +37925,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>1170400</v>
+        <v>1013135</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>349</v>
@@ -37939,9 +37939,9 @@
       <c r="E172" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172" s="6" t="e">
         <f>_xlfn.XLOOKUP(A172,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>350</v>
@@ -37949,7 +37949,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>1170601</v>
+        <v>1013135</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>351</v>
@@ -37963,9 +37963,9 @@
       <c r="E173" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F173" s="6" t="e">
         <f>_xlfn.XLOOKUP(A173,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>352</v>
@@ -37973,7 +37973,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>1170510</v>
+        <v>1013135</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>353</v>
@@ -37987,9 +37987,9 @@
       <c r="E174" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F174" s="6" t="e">
         <f>_xlfn.XLOOKUP(A174,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>354</v>
@@ -37997,7 +37997,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>1170650</v>
+        <v>1013135</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>355</v>
@@ -38011,9 +38011,9 @@
       <c r="E175" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175" s="6" t="e">
         <f>_xlfn.XLOOKUP(A175,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>356</v>
@@ -38021,7 +38021,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>1171911</v>
+        <v>1013135</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>357</v>
@@ -38035,9 +38035,9 @@
       <c r="E176" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176" s="6" t="e">
         <f>_xlfn.XLOOKUP(A176,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>358</v>
@@ -38045,7 +38045,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>1213150</v>
+        <v>1013135</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>359</v>
@@ -38059,9 +38059,9 @@
       <c r="E177" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="6" t="e">
         <f>_xlfn.XLOOKUP(A177,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>360</v>
@@ -38069,7 +38069,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>1170660</v>
+        <v>1013135</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>361</v>
@@ -38083,9 +38083,9 @@
       <c r="E178" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178" s="6" t="e">
         <f>_xlfn.XLOOKUP(A178,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>362</v>
@@ -38093,7 +38093,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>1171912</v>
+        <v>1013135</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>363</v>
@@ -38107,9 +38107,9 @@
       <c r="E179" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="6" t="e">
         <f>_xlfn.XLOOKUP(A179,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>364</v>
@@ -38117,7 +38117,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>1170670</v>
+        <v>1013135</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>365</v>
@@ -38131,9 +38131,9 @@
       <c r="E180" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180" s="6" t="e">
         <f>_xlfn.XLOOKUP(A180,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>366</v>
@@ -38141,7 +38141,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>1170675</v>
+        <v>1013135</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>367</v>
@@ -38155,9 +38155,9 @@
       <c r="E181" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181" s="6" t="e">
         <f>_xlfn.XLOOKUP(A181,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>368</v>
@@ -38165,7 +38165,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>1171910</v>
+        <v>1013135</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>369</v>
@@ -38179,9 +38179,9 @@
       <c r="E182" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F182" s="6" t="e">
         <f>_xlfn.XLOOKUP(A182,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>370</v>
@@ -38189,7 +38189,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>1171913</v>
+        <v>1013135</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>371</v>
@@ -38203,9 +38203,9 @@
       <c r="E183" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F183" s="6">
+      <c r="F183" s="6" t="e">
         <f>_xlfn.XLOOKUP(A183,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>372</v>
@@ -38213,7 +38213,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>1170671</v>
+        <v>1013135</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>373</v>
@@ -38227,9 +38227,9 @@
       <c r="E184" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F184" s="6" t="e">
         <f>_xlfn.XLOOKUP(A184,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>374</v>
@@ -38237,7 +38237,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>1172500</v>
+        <v>1013135</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>375</v>
@@ -38251,9 +38251,9 @@
       <c r="E185" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185" s="6" t="e">
         <f>_xlfn.XLOOKUP(A185,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>376</v>
@@ -38261,7 +38261,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>1172400</v>
+        <v>1013135</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>377</v>
@@ -38275,9 +38275,9 @@
       <c r="E186" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="6" t="e">
         <f>_xlfn.XLOOKUP(A186,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>378</v>
@@ -38285,7 +38285,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>1172600</v>
+        <v>1013135</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>379</v>
@@ -38299,9 +38299,9 @@
       <c r="E187" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187" s="6" t="e">
         <f>_xlfn.XLOOKUP(A187,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>380</v>
@@ -38309,7 +38309,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>1172350</v>
+        <v>1013135</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>381</v>
@@ -38323,9 +38323,9 @@
       <c r="E188" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="6" t="e">
         <f>_xlfn.XLOOKUP(A188,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>382</v>
@@ -38333,7 +38333,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>1211900</v>
+        <v>1013135</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>383</v>
@@ -38347,9 +38347,9 @@
       <c r="E189" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189" s="6" t="e">
         <f>_xlfn.XLOOKUP(A189,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>384</v>
@@ -38357,7 +38357,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>1211950</v>
+        <v>1013135</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>385</v>
@@ -38371,9 +38371,9 @@
       <c r="E190" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190" s="6" t="e">
         <f>_xlfn.XLOOKUP(A190,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>386</v>
@@ -38381,7 +38381,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>1172647</v>
+        <v>1013135</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>387</v>
@@ -38395,9 +38395,9 @@
       <c r="E191" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F191" s="6" t="e">
         <f>_xlfn.XLOOKUP(A191,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>388</v>
@@ -38405,7 +38405,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>1172640</v>
+        <v>1013135</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>389</v>
@@ -38419,9 +38419,9 @@
       <c r="E192" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="6" t="e">
         <f>_xlfn.XLOOKUP(A192,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>390</v>
@@ -38429,7 +38429,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>1172646</v>
+        <v>1013135</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>391</v>
@@ -38443,9 +38443,9 @@
       <c r="E193" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193" s="6" t="e">
         <f>_xlfn.XLOOKUP(A193,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>392</v>
@@ -38453,7 +38453,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>1212010</v>
+        <v>1013135</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>393</v>
@@ -38467,9 +38467,9 @@
       <c r="E194" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194" s="6" t="e">
         <f>_xlfn.XLOOKUP(A194,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>394</v>
@@ -38477,7 +38477,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>1212020</v>
+        <v>1013135</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>395</v>
@@ -38491,9 +38491,9 @@
       <c r="E195" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195" s="6" t="e">
         <f>_xlfn.XLOOKUP(A195,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>396</v>
@@ -38501,7 +38501,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>1212000</v>
+        <v>1013135</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>397</v>
@@ -38515,9 +38515,9 @@
       <c r="E196" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F196" s="6" t="e">
         <f>_xlfn.XLOOKUP(A196,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>398</v>
@@ -38525,7 +38525,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>1172651</v>
+        <v>1013135</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>399</v>
@@ -38539,9 +38539,9 @@
       <c r="E197" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197" s="6" t="e">
         <f>_xlfn.XLOOKUP(A197,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>400</v>
@@ -38549,7 +38549,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>1213285</v>
+        <v>1013135</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>401</v>
@@ -38563,9 +38563,9 @@
       <c r="E198" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198" s="6" t="e">
         <f>_xlfn.XLOOKUP(A198,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>402</v>
@@ -38573,7 +38573,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>1175750</v>
+        <v>1013135</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>403</v>
@@ -38587,9 +38587,9 @@
       <c r="E199" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F199" s="6" t="e">
         <f>_xlfn.XLOOKUP(A199,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>404</v>
@@ -38597,7 +38597,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>1169105</v>
+        <v>1013135</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>405</v>
@@ -38609,9 +38609,9 @@
         <v>155</v>
       </c>
       <c r="E200" s="5"/>
-      <c r="F200" s="6">
+      <c r="F200" s="6" t="e">
         <f>_xlfn.XLOOKUP(A200,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>406</v>
@@ -38619,7 +38619,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>1172550</v>
+        <v>1013135</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>407</v>
@@ -38631,9 +38631,9 @@
         <v>155</v>
       </c>
       <c r="E201" s="5"/>
-      <c r="F201" s="6">
+      <c r="F201" s="6" t="e">
         <f>_xlfn.XLOOKUP(A201,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>408</v>
@@ -38641,7 +38641,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>1158422</v>
+        <v>1013135</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>409</v>
@@ -38653,9 +38653,9 @@
         <v>155</v>
       </c>
       <c r="E202" s="5"/>
-      <c r="F202" s="6">
+      <c r="F202" s="6" t="e">
         <f>_xlfn.XLOOKUP(A202,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>410</v>
@@ -38663,7 +38663,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>1158424</v>
+        <v>1013135</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>411</v>
@@ -38675,9 +38675,9 @@
         <v>155</v>
       </c>
       <c r="E203" s="5"/>
-      <c r="F203" s="6">
+      <c r="F203" s="6" t="e">
         <f>_xlfn.XLOOKUP(A203,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>412</v>
@@ -38685,7 +38685,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>1158426</v>
+        <v>1013135</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>413</v>
@@ -38697,9 +38697,9 @@
         <v>155</v>
       </c>
       <c r="E204" s="5"/>
-      <c r="F204" s="6">
+      <c r="F204" s="6" t="e">
         <f>_xlfn.XLOOKUP(A204,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>414</v>
@@ -38707,7 +38707,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>1158428</v>
+        <v>1013135</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>415</v>
@@ -38719,9 +38719,9 @@
         <v>155</v>
       </c>
       <c r="E205" s="5"/>
-      <c r="F205" s="6">
+      <c r="F205" s="6" t="e">
         <f>_xlfn.XLOOKUP(A205,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>416</v>
@@ -38729,7 +38729,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>1158430</v>
+        <v>1013135</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>417</v>
@@ -38741,9 +38741,9 @@
         <v>155</v>
       </c>
       <c r="E206" s="5"/>
-      <c r="F206" s="6">
+      <c r="F206" s="6" t="e">
         <f>_xlfn.XLOOKUP(A206,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>418</v>
@@ -38751,7 +38751,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>1158420</v>
+        <v>1013135</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>419</v>
@@ -38763,9 +38763,9 @@
         <v>155</v>
       </c>
       <c r="E207" s="5"/>
-      <c r="F207" s="6">
+      <c r="F207" s="6" t="e">
         <f>_xlfn.XLOOKUP(A207,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>420</v>
@@ -38773,7 +38773,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>1158434</v>
+        <v>1013135</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>421</v>
@@ -38785,9 +38785,9 @@
         <v>155</v>
       </c>
       <c r="E208" s="5"/>
-      <c r="F208" s="6">
+      <c r="F208" s="6" t="e">
         <f>_xlfn.XLOOKUP(A208,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>422</v>
@@ -38795,7 +38795,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>1158435</v>
+        <v>1013135</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>423</v>
@@ -38807,9 +38807,9 @@
         <v>155</v>
       </c>
       <c r="E209" s="5"/>
-      <c r="F209" s="6">
+      <c r="F209" s="6" t="e">
         <f>_xlfn.XLOOKUP(A209,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>424</v>
@@ -38817,7 +38817,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>1158436</v>
+        <v>1013135</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>425</v>
@@ -38829,9 +38829,9 @@
         <v>155</v>
       </c>
       <c r="E210" s="5"/>
-      <c r="F210" s="6">
+      <c r="F210" s="6" t="e">
         <f>_xlfn.XLOOKUP(A210,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>426</v>
@@ -38839,7 +38839,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>1158437</v>
+        <v>1013135</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>427</v>
@@ -38851,9 +38851,9 @@
         <v>155</v>
       </c>
       <c r="E211" s="5"/>
-      <c r="F211" s="6">
+      <c r="F211" s="6" t="e">
         <f>_xlfn.XLOOKUP(A211,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>428</v>
@@ -38861,7 +38861,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>1159550</v>
+        <v>1013135</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>429</v>
@@ -38873,9 +38873,9 @@
         <v>155</v>
       </c>
       <c r="E212" s="5"/>
-      <c r="F212" s="6">
+      <c r="F212" s="6" t="e">
         <f>_xlfn.XLOOKUP(A212,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>430</v>
@@ -38883,7 +38883,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>1159330</v>
+        <v>1013135</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>431</v>
@@ -38895,9 +38895,9 @@
         <v>155</v>
       </c>
       <c r="E213" s="5"/>
-      <c r="F213" s="6">
+      <c r="F213" s="6" t="e">
         <f>_xlfn.XLOOKUP(A213,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>432</v>
@@ -38905,7 +38905,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>1171058</v>
+        <v>1013135</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>433</v>
@@ -38919,9 +38919,9 @@
       <c r="E214" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214" s="6" t="e">
         <f>_xlfn.XLOOKUP(A214,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>435</v>
@@ -38929,7 +38929,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>1171055</v>
+        <v>1013135</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>436</v>
@@ -38943,9 +38943,9 @@
       <c r="E215" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F215" s="6">
+      <c r="F215" s="6" t="e">
         <f>_xlfn.XLOOKUP(A215,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>437</v>
@@ -38953,7 +38953,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>1171040</v>
+        <v>1013135</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>438</v>
@@ -38967,9 +38967,9 @@
       <c r="E216" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F216" s="6">
+      <c r="F216" s="6" t="e">
         <f>_xlfn.XLOOKUP(A216,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>439</v>
@@ -38977,7 +38977,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
-        <v>1171057</v>
+        <v>1013135</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>440</v>
@@ -38991,9 +38991,9 @@
       <c r="E217" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F217" s="6">
+      <c r="F217" s="6" t="e">
         <f>_xlfn.XLOOKUP(A217,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>37</v>
@@ -39001,7 +39001,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>1171060</v>
+        <v>1013135</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>441</v>
@@ -39015,9 +39015,9 @@
       <c r="E218" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F218" s="6">
+      <c r="F218" s="6" t="e">
         <f>_xlfn.XLOOKUP(A218,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>442</v>
@@ -39025,7 +39025,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>1171030</v>
+        <v>1013135</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>443</v>
@@ -39039,9 +39039,9 @@
       <c r="E219" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F219" s="6">
+      <c r="F219" s="6" t="e">
         <f>_xlfn.XLOOKUP(A219,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>444</v>
@@ -39049,7 +39049,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>1171050</v>
+        <v>1013135</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>445</v>
@@ -39063,9 +39063,9 @@
       <c r="E220" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F220" s="6">
+      <c r="F220" s="6" t="e">
         <f>_xlfn.XLOOKUP(A220,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>446</v>
@@ -39073,7 +39073,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>1171310</v>
+        <v>1013135</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>447</v>
@@ -39087,9 +39087,9 @@
       <c r="E221" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F221" s="6" t="e">
         <f>_xlfn.XLOOKUP(A221,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>448</v>
@@ -39097,7 +39097,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>1175800</v>
+        <v>1013135</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>449</v>
@@ -39109,9 +39109,9 @@
         <v>155</v>
       </c>
       <c r="E222" s="5"/>
-      <c r="F222" s="6">
+      <c r="F222" s="6" t="e">
         <f>_xlfn.XLOOKUP(A222,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>450</v>
@@ -39119,7 +39119,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>1258834</v>
+        <v>1013135</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>451</v>
@@ -39133,9 +39133,9 @@
       <c r="E223" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F223" s="6" t="e">
         <f>_xlfn.XLOOKUP(A223,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>453</v>
@@ -39143,7 +39143,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>1258851</v>
+        <v>1013135</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>454</v>
@@ -39157,9 +39157,9 @@
       <c r="E224" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F224" s="6" t="e">
         <f>_xlfn.XLOOKUP(A224,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>455</v>
@@ -39167,7 +39167,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>1258830</v>
+        <v>1013135</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>456</v>
@@ -39181,9 +39181,9 @@
       <c r="E225" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F225" s="6" t="e">
         <f>_xlfn.XLOOKUP(A225,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>457</v>
@@ -39191,7 +39191,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>1258832</v>
+        <v>1013135</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>458</v>
@@ -39205,9 +39205,9 @@
       <c r="E226" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226" s="6" t="e">
         <f>_xlfn.XLOOKUP(A226,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>459</v>
@@ -39215,7 +39215,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>1258833</v>
+        <v>1013135</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>460</v>
@@ -39229,9 +39229,9 @@
       <c r="E227" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F227" s="6" t="e">
         <f>_xlfn.XLOOKUP(A227,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G227" s="4" t="s">
         <v>461</v>
@@ -39239,7 +39239,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>1260400</v>
+        <v>1013135</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>462</v>
@@ -39253,9 +39253,9 @@
       <c r="E228" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F228" s="6" t="e">
         <f>_xlfn.XLOOKUP(A228,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>463</v>
@@ -39263,7 +39263,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>1260410</v>
+        <v>1013135</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>464</v>
@@ -39277,9 +39277,9 @@
       <c r="E229" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229" s="6" t="e">
         <f>_xlfn.XLOOKUP(A229,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>465</v>
@@ -39287,7 +39287,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>1263067</v>
+        <v>1013135</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>466</v>
@@ -39301,9 +39301,9 @@
       <c r="E230" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F230" s="6">
+      <c r="F230" s="6" t="e">
         <f>_xlfn.XLOOKUP(A230,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>468</v>
@@ -39311,7 +39311,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <v>1263073</v>
+        <v>1013135</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>469</v>
@@ -39325,9 +39325,9 @@
       <c r="E231" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F231" s="6" t="e">
         <f>_xlfn.XLOOKUP(A231,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>470</v>
@@ -39335,7 +39335,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>1263066</v>
+        <v>1013135</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>471</v>
@@ -39349,9 +39349,9 @@
       <c r="E232" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F232" s="6" t="e">
         <f>_xlfn.XLOOKUP(A232,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>472</v>
@@ -39359,7 +39359,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>1263071</v>
+        <v>1013135</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>473</v>
@@ -39373,9 +39373,9 @@
       <c r="E233" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233" s="6" t="e">
         <f>_xlfn.XLOOKUP(A233,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>474</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>1263068</v>
+        <v>1013135</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>475</v>
@@ -39397,9 +39397,9 @@
       <c r="E234" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F234" s="6">
+      <c r="F234" s="6" t="e">
         <f>_xlfn.XLOOKUP(A234,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>476</v>
@@ -39407,7 +39407,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>1263069</v>
+        <v>1013135</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>477</v>
@@ -39421,9 +39421,9 @@
       <c r="E235" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235" s="6" t="e">
         <f>_xlfn.XLOOKUP(A235,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G235" s="4" t="s">
         <v>478</v>
@@ -39431,7 +39431,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>1263075</v>
+        <v>1013135</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>479</v>
@@ -39445,9 +39445,9 @@
       <c r="E236" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F236" s="6" t="e">
         <f>_xlfn.XLOOKUP(A236,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>480</v>
@@ -39455,7 +39455,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>1263077</v>
+        <v>1013135</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>481</v>
@@ -39469,9 +39469,9 @@
       <c r="E237" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F237" s="6">
+      <c r="F237" s="6" t="e">
         <f>_xlfn.XLOOKUP(A237,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>482</v>
@@ -39479,7 +39479,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>1263079</v>
+        <v>1013135</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>483</v>
@@ -39493,9 +39493,9 @@
       <c r="E238" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F238" s="6" t="e">
         <f>_xlfn.XLOOKUP(A238,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>484</v>
@@ -39503,7 +39503,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>1263121</v>
+        <v>1013135</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>485</v>
@@ -39517,9 +39517,9 @@
       <c r="E239" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F239" s="6" t="e">
         <f>_xlfn.XLOOKUP(A239,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>486</v>
@@ -39527,7 +39527,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>1263120</v>
+        <v>1013135</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>487</v>
@@ -39541,9 +39541,9 @@
       <c r="E240" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F240" s="6" t="e">
         <f>_xlfn.XLOOKUP(A240,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>488</v>
@@ -39551,7 +39551,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>1263101</v>
+        <v>1013135</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>489</v>
@@ -39563,9 +39563,9 @@
         <v>155</v>
       </c>
       <c r="E241" s="5"/>
-      <c r="F241" s="6">
+      <c r="F241" s="6" t="e">
         <f>_xlfn.XLOOKUP(A241,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>490</v>
@@ -39573,7 +39573,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>1262950</v>
+        <v>1013135</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>491</v>
@@ -39587,9 +39587,9 @@
       <c r="E242" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F242" s="6">
+      <c r="F242" s="6" t="e">
         <f>_xlfn.XLOOKUP(A242,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>492</v>
@@ -39597,7 +39597,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
-        <v>1263016</v>
+        <v>1013135</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>493</v>
@@ -39611,9 +39611,9 @@
       <c r="E243" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F243" s="6">
+      <c r="F243" s="6" t="e">
         <f>_xlfn.XLOOKUP(A243,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>494</v>
@@ -39621,7 +39621,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>1263020</v>
+        <v>1013135</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>495</v>
@@ -39635,9 +39635,9 @@
       <c r="E244" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F244" s="6" t="e">
         <f>_xlfn.XLOOKUP(A244,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>496</v>
@@ -39645,7 +39645,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>1262952</v>
+        <v>1013135</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>497</v>
@@ -39659,9 +39659,9 @@
       <c r="E245" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F245" s="6" t="e">
         <f>_xlfn.XLOOKUP(A245,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>498</v>
@@ -39669,7 +39669,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
-        <v>1263030</v>
+        <v>1013135</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>499</v>
@@ -39683,9 +39683,9 @@
       <c r="E246" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F246" s="6">
+      <c r="F246" s="6" t="e">
         <f>_xlfn.XLOOKUP(A246,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>500</v>
@@ -39693,7 +39693,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <v>1262954</v>
+        <v>1013135</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>501</v>
@@ -39707,9 +39707,9 @@
       <c r="E247" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F247" s="6">
+      <c r="F247" s="6" t="e">
         <f>_xlfn.XLOOKUP(A247,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>502</v>
@@ -39717,7 +39717,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>1263012</v>
+        <v>1013135</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>503</v>
@@ -39731,9 +39731,9 @@
       <c r="E248" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F248" s="6">
+      <c r="F248" s="6" t="e">
         <f>_xlfn.XLOOKUP(A248,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>504</v>
@@ -39741,7 +39741,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>1263000</v>
+        <v>1013135</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>505</v>
@@ -39755,9 +39755,9 @@
       <c r="E249" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F249" s="6">
+      <c r="F249" s="6" t="e">
         <f>_xlfn.XLOOKUP(A249,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>506</v>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>1263010</v>
+        <v>1013135</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>507</v>
@@ -39779,9 +39779,9 @@
       <c r="E250" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F250" s="6">
+      <c r="F250" s="6" t="e">
         <f>_xlfn.XLOOKUP(A250,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>508</v>
@@ -39789,7 +39789,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>1160100</v>
+        <v>1013135</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>509</v>
@@ -39801,9 +39801,9 @@
         <v>155</v>
       </c>
       <c r="E251" s="5"/>
-      <c r="F251" s="6">
+      <c r="F251" s="6" t="e">
         <f>_xlfn.XLOOKUP(A251,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>510</v>
@@ -39811,7 +39811,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>1170100</v>
+        <v>1013135</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>511</v>
@@ -39825,9 +39825,9 @@
       <c r="E252" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F252" s="6">
+      <c r="F252" s="6" t="e">
         <f>_xlfn.XLOOKUP(A252,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>198</v>
@@ -39835,7 +39835,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>1170040</v>
+        <v>1013135</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>513</v>
@@ -39849,9 +39849,9 @@
       <c r="E253" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F253" s="6">
+      <c r="F253" s="6" t="e">
         <f>_xlfn.XLOOKUP(A253,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>514</v>
@@ -39859,7 +39859,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>1170090</v>
+        <v>1013135</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>515</v>
@@ -39873,9 +39873,9 @@
       <c r="E254" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F254" s="6">
+      <c r="F254" s="6" t="e">
         <f>_xlfn.XLOOKUP(A254,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>194</v>
@@ -39883,7 +39883,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>1175400</v>
+        <v>1013135</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>516</v>
@@ -39895,9 +39895,9 @@
         <v>155</v>
       </c>
       <c r="E255" s="5"/>
-      <c r="F255" s="6">
+      <c r="F255" s="6" t="e">
         <f>_xlfn.XLOOKUP(A255,'[1]Lista de Precio'!$A$1:$A$65536,'[1]Lista de Precio'!$B$1:$B$65536)</f>
-        <v>100</v>
+        <v>#N/A</v>
       </c>
       <c r="G255" s="4" t="s">
         <v>517</v>
